--- a/View Layout in Excell/POS Layout.xlsx
+++ b/View Layout in Excell/POS Layout.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\habib\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golam\source\repos\golamhabibpalash\POS\View Layout in Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89281FE2-1ED5-4822-AAA2-EBB00B334BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="24108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Purchase" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard1" sheetId="3" r:id="rId1"/>
+    <sheet name="Product Add" sheetId="4" r:id="rId2"/>
+    <sheet name="Purchase" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Purchase Product</t>
   </si>
@@ -102,13 +113,124 @@
   </si>
   <si>
     <t>Product Image</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>Credit Amount</t>
+  </si>
+  <si>
+    <t>Debit Amount</t>
+  </si>
+  <si>
+    <t>NET BALANCE</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash Payment</t>
+  </si>
+  <si>
+    <t>Cash Received</t>
+  </si>
+  <si>
+    <t>Day Opening</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>Payment (Received)</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>Shipping Amount</t>
+  </si>
+  <si>
+    <t>VAT Amount</t>
+  </si>
+  <si>
+    <t>Retrun Total</t>
+  </si>
+  <si>
+    <t>Sales Total</t>
+  </si>
+  <si>
+    <t>Total Invoice</t>
+  </si>
+  <si>
+    <t>TODAY SALES SUMMARY</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>Manufacturing Date</t>
+  </si>
+  <si>
+    <t>Alart Qty</t>
+  </si>
+  <si>
+    <t>Exist Qty</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Product Size</t>
+  </si>
+  <si>
+    <t>Default Sale Price</t>
+  </si>
+  <si>
+    <t>Unit of Measurment</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Ex:Lux 150gm</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Add New Product</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Auto Generated Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +282,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +382,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -272,27 +498,341 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,49 +841,237 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,6 +1094,371 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Isosceles Triangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE40262C-B938-45D3-B8E3-F1ED228E456E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3048000" y="2255520"/>
+          <a:ext cx="0" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Isosceles Triangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE48CE4-BAFF-4DDB-8EE7-F413C7DB98FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6690360" y="2270760"/>
+          <a:ext cx="15240" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Isosceles Triangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3838E10A-6B40-4541-ADCF-750CCF813C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4251960" y="1897380"/>
+          <a:ext cx="15240" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Isosceles Triangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EA7173-B0BC-43EE-8F00-662F097B1F59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3025140" y="2636520"/>
+          <a:ext cx="22860" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Isosceles Triangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DC99DF-C5AA-4DF4-B94E-15DA4117E571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3657600" y="2987040"/>
+          <a:ext cx="0" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Isosceles Triangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717709C5-90DD-4812-BC4E-3F1A0042B553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7315200" y="2994660"/>
+          <a:ext cx="0" cy="91440"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -379,12 +1472,78 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Isosceles Triangle 1"/>
+        <xdr:cNvPr id="2" name="Isosceles Triangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="3533775" y="1400175"/>
+          <a:ext cx="104775" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>470535</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>196215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Isosceles Triangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDE8718-5AD4-498E-AD71-1327E6267C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3518535" y="712470"/>
           <a:ext cx="104775" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
@@ -683,53 +1842,959 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7254AE-E119-44EF-ADAB-F3CC71D1DBE3}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="12" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="49"/>
+      <c r="L1" s="48"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47">
+        <v>15769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="45">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="43">
+        <f>SUM(L2:L7)</f>
+        <v>16165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="41">
+        <v>14205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="37">
+        <v>40715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="38"/>
+      <c r="L13" s="37">
+        <v>14705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="37">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="35">
+        <f>L12+L13-L14</f>
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="34"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="31">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="29">
+        <f>L18-L19</f>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5948F21-A21A-44AE-8D4F-6542E04B677A}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="14" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="78"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+    </row>
+    <row r="5" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+    </row>
+    <row r="7" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+    </row>
+    <row r="10" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="55"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="58"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="58"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+    </row>
+    <row r="23" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+    </row>
+    <row r="24" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="J2:L11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="I13:K13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-    </row>
-    <row r="3" spans="1:16" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -738,30 +2803,30 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:16" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -770,28 +2835,30 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -800,30 +2867,30 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:16" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -832,28 +2899,28 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -862,28 +2929,28 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -892,173 +2959,178 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="27" t="s">
+      <c r="J13" s="27"/>
+      <c r="K13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="14"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="9"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+    <row r="15" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="17" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="17" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="11">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="7">
         <v>20</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="7">
         <v>40</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="85">
         <f>E18*G18-H18</f>
         <v>790</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="23" t="s">
+      <c r="K18" s="15"/>
+      <c r="L18" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="11">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="7">
         <v>10</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>100</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="85">
         <f>E19*G19-H19</f>
         <v>995</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="23" t="s">
+      <c r="K19" s="15"/>
+      <c r="L19" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="87">
+        <f>SUM(I18:I19)</f>
+        <v>1785</v>
+      </c>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1072,7 +3144,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1086,7 +3158,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1100,7 +3172,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1114,7 +3186,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1128,7 +3200,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1142,7 +3214,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1157,15 +3229,15 @@
       <c r="L27" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="K13:K14"/>
+  <mergeCells count="26">
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="I2:L11"/>
@@ -1175,16 +3247,30 @@
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA39E2-C217-405C-9C47-CC29DF7CB274}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/View Layout in Excell/POS Layout.xlsx
+++ b/View Layout in Excell/POS Layout.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golam\source\repos\golamhabibpalash\POS\View Layout in Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89281FE2-1ED5-4822-AAA2-EBB00B334BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFA1849-B286-4C76-84A5-A54C32F02ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard1" sheetId="3" r:id="rId1"/>
     <sheet name="Product Add" sheetId="4" r:id="rId2"/>
     <sheet name="Purchase" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Supplier Create Page" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Purchase Product</t>
   </si>
@@ -224,13 +224,40 @@
   </si>
   <si>
     <t>Auto Generated Code</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Supplier Type</t>
+  </si>
+  <si>
+    <t>Supplier Image</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Create New Supplier</t>
+  </si>
+  <si>
+    <t>Insert Imge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +371,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,8 +459,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -824,11 +871,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -852,226 +908,265 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1858,371 +1953,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="49" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="48"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="46" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="45">
+      <c r="K2" s="37"/>
+      <c r="L2" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="46" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47">
+      <c r="K3" s="37"/>
+      <c r="L3" s="21">
         <v>15769</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="46" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="45">
+      <c r="K4" s="37"/>
+      <c r="L4" s="20">
         <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="46" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="45">
+      <c r="K5" s="37"/>
+      <c r="L5" s="20">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="46" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="45">
+      <c r="K6" s="37"/>
+      <c r="L6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="46" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="45"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="44" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="43">
+      <c r="K8" s="39"/>
+      <c r="L8" s="19">
         <f>SUM(L2:L7)</f>
         <v>16165</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="42" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="41">
+      <c r="K9" s="38"/>
+      <c r="L9" s="18">
         <v>14205</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="40" t="s">
         <v>34</v>
       </c>
       <c r="K11" s="40"/>
-      <c r="L11" s="39"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="38" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="37">
+      <c r="K12" s="42"/>
+      <c r="L12" s="17">
         <v>40715</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="38" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="38"/>
-      <c r="L13" s="37">
+      <c r="K13" s="42"/>
+      <c r="L13" s="17">
         <v>14705</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="38" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="38"/>
-      <c r="L14" s="37">
+      <c r="K14" s="42"/>
+      <c r="L14" s="17">
         <v>12000</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="36" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="35">
+      <c r="K15" s="43"/>
+      <c r="L15" s="16">
         <f>L12+L13-L14</f>
         <v>43420</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="34" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="33"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="32" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="31">
+      <c r="K18" s="35"/>
+      <c r="L18" s="15">
         <v>1017</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="32" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="31">
+      <c r="K19" s="35"/>
+      <c r="L19" s="15">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="30" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="29">
+      <c r="K20" s="36"/>
+      <c r="L20" s="14">
         <f>L18-L19</f>
         <v>909</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -2235,12 +2336,6 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2261,453 +2356,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="79" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:14" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="65" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="65" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="65" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="65" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="58" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="58" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="58" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="53" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="J2:L11"/>
@@ -2715,31 +2831,10 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2751,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2761,38 +2856,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -2803,28 +2898,28 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -2835,28 +2930,28 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="89" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -2867,28 +2962,28 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="83"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2899,26 +2994,26 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="83"/>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:16" ht="6.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -2929,21 +3024,21 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="1"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2959,29 +3054,29 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="18" t="s">
+      <c r="J13" s="88"/>
+      <c r="K13" s="89" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="18"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="9"/>
       <c r="P14" s="2"/>
     </row>
@@ -3017,11 +3112,11 @@
       <c r="A17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="10" t="s">
         <v>11</v>
       </c>
@@ -3037,10 +3132,10 @@
       <c r="I17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="84"/>
       <c r="L17" s="10" t="s">
         <v>23</v>
       </c>
@@ -3049,11 +3144,11 @@
       <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="7">
         <v>20</v>
       </c>
@@ -3066,14 +3161,14 @@
       <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="33">
         <f>E18*G18-H18</f>
         <v>790</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="85"/>
       <c r="L18" s="12" t="s">
         <v>24</v>
       </c>
@@ -3082,11 +3177,11 @@
       <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="7">
         <v>10</v>
       </c>
@@ -3099,36 +3194,36 @@
       <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="33">
         <f>E19*G19-H19</f>
         <v>995</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="87">
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="34">
         <f>SUM(I18:I19)</f>
         <v>1785</v>
       </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -3230,6 +3325,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="A20:H20"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="A1:L1"/>
@@ -3246,16 +3351,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3265,12 +3360,289 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA39E2-C217-405C-9C47-CC29DF7CB274}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="95"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="95"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="95"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="95"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="90"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="93"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J3:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>